--- a/arquivos/custos_nfv.xlsx
+++ b/arquivos/custos_nfv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derickl\Desktop\NFV 2.0\Oportunidades\Robo Felipe\NEW_NFV\NEW_NFV\arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F257064\Documents\Codes\atualizacao nfv automatico\NEW_NFV\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58E28B-F3B0-4CCD-9996-83E0D57983D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -97,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,14 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,23 +423,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,7 +456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,7 +473,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,24 +490,24 @@
         <v>726</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4">
-        <v>1328</v>
+        <v>1074</v>
       </c>
       <c r="C4" s="4">
-        <v>1328</v>
+        <v>1074</v>
       </c>
       <c r="D4" s="4">
-        <v>1328</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1074</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,7 +524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,7 +541,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -569,7 +558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +575,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,7 +592,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,7 +609,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -637,7 +626,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -654,7 +643,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -671,34 +660,34 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>4904</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>4904</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
